--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value698.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value698.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1543789489710105</v>
+        <v>1.035578370094299</v>
       </c>
       <c r="B1">
-        <v>0.1008753674119321</v>
+        <v>1.248359799385071</v>
       </c>
       <c r="C1">
-        <v>0.07830306038088256</v>
+        <v>1.674901604652405</v>
       </c>
       <c r="D1">
-        <v>0.07588026797713178</v>
+        <v>3.227506160736084</v>
       </c>
       <c r="E1">
-        <v>0.08247805637022788</v>
+        <v>2.499902248382568</v>
       </c>
     </row>
   </sheetData>
